--- a/五洲鼎食.xlsx
+++ b/五洲鼎食.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28125" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="五洲鼎食海鲜火锅" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="五洲鼎食海鲜火锅" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -881,6 +881,74 @@
     <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1145,7 +1213,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BE129"/>
+  <dimension ref="A1:BE138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B90" activePane="bottomRight" state="frozen"/>
@@ -29067,9 +29135,6 @@
           <t>0.00</t>
         </is>
       </c>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="inlineStr"/>
-      <c r="T129" t="inlineStr"/>
       <c r="U129" t="inlineStr">
         <is>
           <t>1</t>
@@ -29166,6 +29231,1467 @@
         </is>
       </c>
       <c r="AU129" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2022-03-16</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X130" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="Y130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA130" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="AF130" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AG130" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅2-3人餐[788.0]</t>
+        </is>
+      </c>
+      <c r="AH130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI130" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AJ130" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅5-6人餐[1560.0]</t>
+        </is>
+      </c>
+      <c r="AK130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL130" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AP130" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅2-3人餐[638.0]</t>
+        </is>
+      </c>
+      <c r="AQ130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR130" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS130" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅代金券[240.0]</t>
+        </is>
+      </c>
+      <c r="AT130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AU130" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2022-03-16</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X131" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="Y131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA131" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="AF131" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AG131" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅2-3人餐[788.0]</t>
+        </is>
+      </c>
+      <c r="AH131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI131" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AJ131" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅5-6人餐[1560.0]</t>
+        </is>
+      </c>
+      <c r="AK131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL131" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AP131" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅2-3人餐[638.0]</t>
+        </is>
+      </c>
+      <c r="AQ131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR131" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS131" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅代金券[240.0]</t>
+        </is>
+      </c>
+      <c r="AT131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AU131" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2022-03-18</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X132" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="Y132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA132" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="AF132" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AG132" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅2-3人餐[788.0]</t>
+        </is>
+      </c>
+      <c r="AH132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI132" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AJ132" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅5-6人餐[1560.0]</t>
+        </is>
+      </c>
+      <c r="AK132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL132" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AP132" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅2-3人餐[638.0]</t>
+        </is>
+      </c>
+      <c r="AQ132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR132" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS132" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅代金券[240.0]</t>
+        </is>
+      </c>
+      <c r="AT132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AU132" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2022-03-18</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W133" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X133" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="Y133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA133" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="AF133" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AG133" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅2-3人餐[788.0]</t>
+        </is>
+      </c>
+      <c r="AH133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI133" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AJ133" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅5-6人餐[1560.0]</t>
+        </is>
+      </c>
+      <c r="AK133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL133" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AP133" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅2-3人餐[638.0]</t>
+        </is>
+      </c>
+      <c r="AQ133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR133" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS133" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅代金券[240.0]</t>
+        </is>
+      </c>
+      <c r="AT133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AU133" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2022-03-18</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W134" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X134" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="Y134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA134" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="AF134" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AG134" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅2-3人餐[788.0]</t>
+        </is>
+      </c>
+      <c r="AH134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI134" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AJ134" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅5-6人餐[1560.0]</t>
+        </is>
+      </c>
+      <c r="AK134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL134" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AP134" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅2-3人餐[638.0]</t>
+        </is>
+      </c>
+      <c r="AQ134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR134" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS134" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅代金券[240.0]</t>
+        </is>
+      </c>
+      <c r="AT134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AU134" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2022-03-18</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U135" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W135" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X135" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="Y135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA135" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="AF135" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AG135" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅2-3人餐[788.0]</t>
+        </is>
+      </c>
+      <c r="AH135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI135" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AJ135" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅5-6人餐[1560.0]</t>
+        </is>
+      </c>
+      <c r="AK135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL135" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AP135" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅2-3人餐[638.0]</t>
+        </is>
+      </c>
+      <c r="AQ135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR135" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS135" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅代金券[240.0]</t>
+        </is>
+      </c>
+      <c r="AT135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AU135" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2022-03-18</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W136" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X136" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="Y136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA136" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="AF136" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AG136" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅2-3人餐[788.0]</t>
+        </is>
+      </c>
+      <c r="AH136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI136" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AJ136" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅5-6人餐[1560.0]</t>
+        </is>
+      </c>
+      <c r="AK136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL136" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AP136" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅2-3人餐[638.0]</t>
+        </is>
+      </c>
+      <c r="AQ136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR136" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS136" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅代金券[240.0]</t>
+        </is>
+      </c>
+      <c r="AT136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AU136" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X137" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="Y137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA137" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="AF137" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AG137" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅2-3人餐[788.0]</t>
+        </is>
+      </c>
+      <c r="AH137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI137" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AJ137" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅5-6人餐[1560.0]</t>
+        </is>
+      </c>
+      <c r="AK137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL137" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AP137" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅2-3人餐[638.0]</t>
+        </is>
+      </c>
+      <c r="AQ137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR137" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS137" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅代金券[240.0]</t>
+        </is>
+      </c>
+      <c r="AT137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AU137" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="R138" t="inlineStr"/>
+      <c r="S138" t="inlineStr"/>
+      <c r="T138" t="inlineStr"/>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X138" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="Y138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA138" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="AF138" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AG138" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅2-3人餐[788.0]</t>
+        </is>
+      </c>
+      <c r="AH138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI138" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AJ138" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅5-6人餐[1560.0]</t>
+        </is>
+      </c>
+      <c r="AK138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL138" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AP138" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅2-3人餐[638.0]</t>
+        </is>
+      </c>
+      <c r="AQ138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR138" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS138" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅代金券[240.0]</t>
+        </is>
+      </c>
+      <c r="AT138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AU138" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
